--- a/BaoCao/DuLieu.xlsx
+++ b/BaoCao/DuLieu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="BaiHoc" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,150 @@
   </si>
   <si>
     <t>DuongDan</t>
+  </si>
+  <si>
+    <t>JƠNAU MƠ KHAR KƠHO</t>
+  </si>
+  <si>
+    <t>KỜP KHA</t>
+  </si>
+  <si>
+    <t>ĐẾM SỐ</t>
+  </si>
+  <si>
+    <t>TU| TƠNGAI</t>
+  </si>
+  <si>
+    <t>THỜI GIAN</t>
+  </si>
+  <si>
+    <t>LÙP MƠ HƠ</t>
+  </si>
+  <si>
+    <t>HỎI VÀ TRẢ LỜI</t>
+  </si>
+  <si>
+    <t>NIAM SA</t>
+  </si>
+  <si>
+    <t>XIN CHÀO</t>
+  </si>
+  <si>
+    <t>YAL BROA| LƠH</t>
+  </si>
+  <si>
+    <t>GIỚI THIỆU CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>NGỮ PHÁP - DANH TỪ</t>
+  </si>
+  <si>
+    <t>JƠI NÒI K’BIM</t>
+  </si>
+  <si>
+    <t>K’BIM MÌNG GEH BÀR NĂ KÒN</t>
+  </si>
+  <si>
+    <t>HÌU ƠM, SUƠN CHI</t>
+  </si>
+  <si>
+    <t>NGỮ PHÁP</t>
+  </si>
+  <si>
+    <t>YAL JƠNAU BÒN LƠGAR</t>
+  </si>
+  <si>
+    <t>CAU PUÀ BÒN</t>
+  </si>
+  <si>
+    <t>CHỜ HỜP TÀM BROA| LƠH</t>
+  </si>
+  <si>
+    <t>NGỮ PHÁP - ĐỘNG TỪ</t>
+  </si>
+  <si>
+    <t>BƠSRAM WƠL</t>
+  </si>
+  <si>
+    <t>MÌU CÀL</t>
+  </si>
+  <si>
+    <t>BRÊ MƠ TRỒ TIAH</t>
+  </si>
+  <si>
+    <t>TAM CHI TƠNG GƠS BRÊ</t>
+  </si>
+  <si>
+    <t>NGỮ PHÁP - ĐỘNG TỪ(tt)</t>
+  </si>
+  <si>
+    <t>BƠTÀO BÒN CHÀI RƠGƠI</t>
+  </si>
+  <si>
+    <t>BƠTA CHÀI RƠGƠI BƠH YAU</t>
+  </si>
+  <si>
+    <t>NGAI CHƠ BƠNÀR TIAH KƠN BƠNƠM</t>
+  </si>
+  <si>
+    <t>NGỮ PHÁP - TÍNH TỪ</t>
+  </si>
+  <si>
+    <t>DÀ LƠGAR VIỆT NAM</t>
+  </si>
+  <si>
+    <t>BAN| SANG TE| TU| TƠNGAI</t>
+  </si>
+  <si>
+    <t>ĐỪNG LÃNG PHÍ THỜI GIAN</t>
+  </si>
+  <si>
+    <t>PAL PRAP GÀR ALA| JƠNAU ĐƠS HE DÊ</t>
+  </si>
+  <si>
+    <t>HÃY BẢO TỒN TIẾNG NÓI CỦA MÌNH</t>
+  </si>
+  <si>
+    <t>GIT ADAT CAU NDAI SỒNG CAU GIT ADAT HE</t>
+  </si>
+  <si>
+    <t>BIẾT TÔN TRỌNG NGƯỜI KHÁC THÌ NGƯỜI KHÁC MỚI TÔN TRỌNG MÌNH</t>
+  </si>
+  <si>
+    <t>KIS PAL LƠH BROA| GEN SỒNG GEH PHAN SA</t>
+  </si>
+  <si>
+    <t>SỐNG CẦN PHẢI LÀM VIỆC THÌ MỚI CÓ CỦA ĂN</t>
+  </si>
+  <si>
+    <t>LƠH TỀNG TÊ, GƠRÊ TỀNG BƠR TÊ LƠH, BƠR SA</t>
+  </si>
+  <si>
+    <t>PAL TRƠYANG TAM PHAN PỜM, RÒNG SIAM</t>
+  </si>
+  <si>
+    <t>KÒN CAU KIS GEH KỒ, GEH BOAL, GEH YAU, GEH PA SỒNG GEH BOL HE NGAI DO</t>
+  </si>
+  <si>
+    <t>PIANG TỜ TỜM TRƠNỜM TỜ NAC</t>
+  </si>
+  <si>
+    <t>TRƠYANG LƠH GEN GEH PHAN SA, Ờ LAH GEN NGGUI GỜI</t>
+  </si>
+  <si>
+    <t>BRÊ LÀH BIÀNG, DÀ LỀNG LÀH MÀH</t>
+  </si>
+  <si>
+    <t>BAN| CHU ỒS TÀM BRÊ</t>
+  </si>
+  <si>
+    <t>KỜN| BƠTÀO {ÒN CHÀI RƠGƠI PAL BƠTÀO HÌU NHA| CHÀI RƠGƠI</t>
+  </si>
+  <si>
+    <t>DÀ LƠGAR VIỆT NAM LÀH DÙL, JƠI BƠTIÀN VIỆT NAM LÀH DÙL</t>
+  </si>
+  <si>
+    <t>Ù DÙL KƠNAC RAC DÙL RƠSÒN KÒN DÙL ME, DÙL BÀP</t>
   </si>
 </sst>
 </file>
@@ -135,9 +279,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,225 +594,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,13 +1494,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="94" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1228,70 +1525,166 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1728,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A100"/>
     </sheetView>
   </sheetViews>
